--- a/02_programme_task/xlsx_out/59.James.xlsx
+++ b/02_programme_task/xlsx_out/59.James.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1032 +448,1320 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>James 1:3</t>
+          <t>James 1:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>for you know that the testing of your faith produces steadfastness. 4</t>
+          <t>The Letter of James Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>James 1:4</t>
+          <t>James 1:2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>And let steadfastness have its full effect, that you may be perfect and complete, lacking in nothing. 5</t>
+          <t>a James, a servan t of God and b of the Lord Jesus Christ, To c the twelve tribes in d the Dispersion: Greetings. Testing of Your Faith</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>James 1:6</t>
+          <t>James 1:3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>But let him ask in faith, with no doubting, for the one who doubts is like a wave of the sea that is driven and tossed by the wind. 7</t>
+          <t>e Count it all joy, my brothers, when you meet trials f of various kinds,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>James 1:7</t>
+          <t>James 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For that person must not suppose that he will receive anything from the Lord; 8</t>
+          <t>for you know that g the testing of your faith h produces steadfastness.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>James 1:9</t>
+          <t>James 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Let the lowly brother boast in his exaltation,</t>
+          <t>And let steadfastness have its full effect, that you may be i perfect and complete, lacking in nothing.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>James 1:10</t>
+          <t>James 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>and the rich in his humiliation, because like a flower of the gras's he will pass away.</t>
+          <t>j If any of you lacks wisdom, k let him ask God, l who gives generously to all without reproach, and it will be given him.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>James 1:11</t>
+          <t>James 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For the sun rises with its scorching heat and withers the grass; its flower falls, and its beauty perishes. So also will the rich man fade away in the midst of his pursuits.</t>
+          <t>But m let him ask in faith, n with no doubting, for the one who doubts is like o a wave of the sea that is driven and tossed by the wind.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>James 1:13</t>
+          <t>James 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Let no one say when he is tempted, I m being tempted by God, for God cannot be tempted with evil, and he himself tempts no one.</t>
+          <t>For that person must not suppose that he will receive anything from the Lord;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>James 1:14</t>
+          <t>James 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>But each person is tempted when he is lured and enticed by his own desire.</t>
+          <t>p he is a double-minded man, q unstable in all his ways.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>James 1:15</t>
+          <t>James 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Then desire when it has conceived gives birth to sin, and sin when it is fully grown brings forth death.</t>
+          <t>Let the lowly brother boast in his exaltation,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>James 1:16</t>
+          <t>James 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Do not be deceived, my beloved brothers.</t>
+          <t>and r the rich in his humiliation, because s like a flower of the gras s he will pass away.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>James 1:20</t>
+          <t>James 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>for the anger of man does not produce the righteousness of God.</t>
+          <t>For the sun rises with its scorching heat and t withers the grass; its flower falls, and its beauty perishes. So also will the rich man fade away in the midst of his pursuits.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>James 1:21</t>
+          <t>James 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Therefore put away all filthiness and rampant wickedness and receive with meekness the implanted word, which is able to save your souls.</t>
+          <t>u Blessed is the man who remains steadfast under trial, for when he has stood the test he will receive v the crown of life, w which God has promised to those who love him.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>James 1:22</t>
+          <t>James 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>But be doers of the word, and not hearers only, deceiving yourselves.</t>
+          <t>Let no one say when he is tempted, I am being tempted by God, for God cannot be tempted with evil, and he himself tempts no one.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>James 1:23</t>
+          <t>James 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>For if anyone is a hearer of the word and not a doer, he is like a man who looks intently at his natural face in a mirror.</t>
+          <t>But each person is tempted when he is lured and enticed by his own desire.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>James 1:24</t>
+          <t>James 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>For he looks at himself and goes away and at once forgets what he was like.</t>
+          <t>Then desire x when it has conceived gives birth to sin, and y sin when it is fully grown brings forth death.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>James 1:25</t>
+          <t>James 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>But the one who looks into the perfect law, the law of liberty, and perseveres, being no hearer who forgets but a doer who acts, he will be blessed in his doing.</t>
+          <t>Do not be deceived, my beloved brothers.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>James 1:26</t>
+          <t>James 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>If anyone thinks he is religious and does not bridle his tongue but deceives his heart, this person's religion is worthless.</t>
+          <t>z Every good gift and every perfect gift is from above, coming down from a the Father of lights, b with whom there is no variation or shadow due to change.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>James 1:27</t>
+          <t>James 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Religion that is pure and undefiled before God the Father is this: to visit orphans and widows in their affliction, and to keep oneself unstained from the world. The Sin of Partiality 2</t>
+          <t>c Of his own will he d brought us forth by the word of truth, e that we should be a kind of f firstfruits of his creatures. Hearing and Doing the Word</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>James 2:1</t>
+          <t>James 1:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>My brothers, show no partiality as you hold the faith in our Lord Jesus Christ, the Lord of glory. 2</t>
+          <t>g Know this, my beloved brothers: let every person h be quick to hear, i slow to speak, j slow to anger;</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>James 2:2</t>
+          <t>James 1:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>For if a man wearing a gold ring and fine clothing comes into your assembly, and a poor man in shabby clothing also comes in, 3</t>
+          <t>for the anger of man does not produce the righteousness of God.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>James 2:3</t>
+          <t>James 1:21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>and if you pay attention to the one who wears the fine clothing and say, You sit here in a good place, while you say to the poor man, You stand over there, or, Sit down at my feet, 4</t>
+          <t>Therefore k put away all filthiness and rampant wickedness and receive with l meekness the implanted word, m which is able to save your souls.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>James 2:4</t>
+          <t>James 1:22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>have you not then made distinctions among yourselves and become judges with evil thoughts 5</t>
+          <t>But be n doers of the word, and not hearers only, deceiving yourselves.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>James 2:5</t>
+          <t>James 1:23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Listen, my beloved brothers, has not God chosen those who are poor in the world to be rich in faith and heirs of the kingdom, which he has promised to those who love him 6</t>
+          <t>For if anyone is a hearer of the word and not a doer, he is like a man who looks intently at his natural face in a mirror.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>James 2:6</t>
+          <t>James 1:24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>But you have dishonored the poor man. Are not the rich the ones who oppress you, and the ones who drag you into court 7</t>
+          <t>For he looks at himself and goes away and at once forgets what he was like.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>James 2:7</t>
+          <t>James 1:25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Are they not the ones who blaspheme the honorable name by which you were called 8</t>
+          <t>But the one who looks into the perfect law, o the law of liberty, and perseveres, being no hearer who forgets but a doer who acts, p he will be blessed in his doing.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>James 2:8</t>
+          <t>James 1:26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>If you really fulfill the royal law according to the Scripture, You shall love your neighbor as yourself, you are doing well. 9</t>
+          <t>If anyone thinks he is religious q and does not bridle his tongue but deceives his heart, this person s r religion is worthless.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>James 2:9</t>
+          <t>James 1:27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>But if you show partiality, you are committing sin and are convicted by the law as transgressors.</t>
+          <t>Religion that is pure and undefiled before God the Father is this: s to visit t orphans and widows in their affliction, and u to keep oneself v unstained from the world. The Sin of Partiality</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>James 2:10</t>
+          <t>James 2:1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>For whoever keeps the whole law but fails in one point has become guilty of all of it.</t>
+          <t>My brothers,</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>James 2:11</t>
+          <t>James 2:2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>For he who said, Do not commit adultery, also said, Do not murder. If you do not commit adultery but do murder, you have become a transgressor of the law.</t>
+          <t>w show no partiality as you hold the faith in our Lord Jesus Christ, x the Lord of glory.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>James 2:12</t>
+          <t>James 2:2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>So speak and so act as those who are to be judged under the law of liberty.</t>
+          <t>For if a man wearing a gold ring and fine clothing comes into your assembly, and a poor man in shabby clothing also comes in,</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>James 2:13</t>
+          <t>James 2:3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>For judgment is without mercy to one who has shown no mercy. Mercy triumphs over judgment. Faith Without Works Is Dead</t>
+          <t>and if you pay attention to the one who wears the fine clothing and say, You sit here in a good place, y while you say to the poor man, You stand over there, or, Sit down at my feet,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>James 2:14</t>
+          <t>James 2:4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What good is it, my brothers, if someone says he has faith but does not have works Can that faith save him</t>
+          <t>have you not then made distinctions among yourselves and become z judges with evil thoughts?</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>James 2:17</t>
+          <t>James 2:5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>So also faith by itself, if it does not have works, is dead.</t>
+          <t>Listen, my beloved brothers, a has not God chosen those who are poor in the world to be b rich in faith and heirs of c the kingdom, d which he has promised to those who love him?</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>James 2:18</t>
+          <t>James 2:6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>But someone will say, You have faith and I have works. Show me your faith apart from your works, and I will show you my faith by my works.</t>
+          <t>But you e have dishonored the poor man. Are not the rich the ones who oppress you, and the ones who f drag you g into court?</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>James 2:20</t>
+          <t>James 2:7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Do you want to be shown, you foolish person, that faith apart from works is useless</t>
+          <t>Are they not the ones who blaspheme the honorable h name by which you were called?</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>James 2:22</t>
+          <t>James 2:8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>You see that faith was active along with his works, and faith was completed by his works;</t>
+          <t>If you really fulfill the royal law according to the Scripture, i You shall love your neighbor as yourself, you are doing well.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>James 2:23</t>
+          <t>James 2:9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>and the Scripture was fulfilled that says, Abraham believed God, and it was counted to him as righteousness and he was called a friend of God.</t>
+          <t>But if you j show partiality, you are committing sin and are convicted by the law as transgressors.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>James 2:24</t>
+          <t>James 2:10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>You see that a person is justified by works and not by faith alone.</t>
+          <t>For whoever keeps the whole law but fails in one point k has become guilty of all of it.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>James 2:25</t>
+          <t>James 2:11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>And in the same way was not also Rahab the prostitute justified by works when she received the messengers and sent them out by another way</t>
+          <t>For he who said, l Do not commit adultery, also said, l Do not murder. If you do not commit adultery but do murder, you have become a transgressor of the law.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>James 2:26</t>
+          <t>James 2:12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>For as the body apart from the spirit is dead, so also faith apart from works is dead. Taming the Tongue 3</t>
+          <t>So speak and so act as those who are to be judged under m the law of liberty.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>James 3:2</t>
+          <t>James 2:13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>For we all stumble in many ways. And if anyone does not stumble in what he says, he is a perfect man, able also to bridle his whole body. 3</t>
+          <t>For n judgment is without mercy to one who has shown no mercy. Mercy triumphs over judgment. Faith Without Works Is Dead</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>James 3:3</t>
+          <t>James 2:14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>If we put bits into the mouths of horses so that they obey us, we guide their whole bodies as well. 4</t>
+          <t>What good is it, my brothers, if someone says he has faith o but does not have works? Can that faith save him?</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>James 3:4</t>
+          <t>James 2:15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Look at the ships also: though they are so large and are driven by strong winds, they are guided by a very small rudder wherever the will of the pilot directs. 5</t>
+          <t>p If a brother or sister is poorly clothed and lacking in daily food,</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>James 3:5</t>
+          <t>James 2:16</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>So also the tongue is a small member, yet it boasts of great things. How great a forest is set ablaze by such a small fire! 6</t>
+          <t>q and one of you says to them, Go in peace, be warmed and filled, without giving them the things needed for the body, what goo d is that?</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>James 3:6</t>
+          <t>James 2:17</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>And the tongue is a fire, a world of unrighteousness. The tongue is set among our members, staining the whole body, setting on fire the entire course of life, and set on fire by hell. 7</t>
+          <t>So also faith by itself, if it does not have works, is dead.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>James 3:7</t>
+          <t>James 2:18</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>For every kind of beast and bird, of reptile and sea creature, can be tamed and has been tamed by mankind, 8</t>
+          <t>But someone will say, You have faith and I have works. Show me your faith r apart from your works, and I will show you my faith s by my works.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>James 3:8</t>
+          <t>James 2:19</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>but no human being can tame the tongue. It is a restless evil, full of deadly poison. 9</t>
+          <t>t You believe that God is one; you do well. Even u the demons believ e and shudder!</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>James 3:9</t>
+          <t>James 2:20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>With it we bless our Lord and Father, and with it we curse people who are made in the likeness of God.</t>
+          <t>Do you want to be shown, you foolish person, that faith apart from works is useless?</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>James 3:10</t>
+          <t>James 2:21</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>From the same mouth come blessing and cursing. My brothers, these things ought not to be so.</t>
+          <t>v Was not Abraham our father justified by works when he offered up his son Isaac on the altar?</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>James 3:11</t>
+          <t>James 2:22</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Does a spring pour forth from the same opening both fresh and salt water</t>
+          <t>You see that w faith was active along with his works, and faith was completed x by his works;</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>James 3:12</t>
+          <t>James 2:23</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Can a fig tree, my brothers, bear olives, or a grapevine produce figs Neither can a salt pond yield fresh water. Wisdom from Above</t>
+          <t>and the Scripture was fulfilled that says, y Abraham believed God, and it was counted to him as righteousness and he was called a z friend of God.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>James 3:13</t>
+          <t>James 2:24</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Who is wise and understanding among you By his good conduct let him show his works in the meekness of wisdom.</t>
+          <t>You see that a person is justified by works and not by faith alone.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>James 3:14</t>
+          <t>James 2:25</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>But if you have bitter jealousy and selfish ambition in your hearts, do not boast and be false to the truth.</t>
+          <t>And in the same way was not also a Rahab the prostitute justified by works b when she received the messengers and sent them out by another way?</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>James 3:15</t>
+          <t>James 2:26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>This is not the wisdom that comes down from above, but is earthly, unspiritual, demonic.</t>
+          <t>For as the body apart from the spirit is dead, so also faith apart from works is dead. Taming the Tongue</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>James 3:16</t>
+          <t>James 2:27</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>For where jealousy and selfish ambition exist, there will be disorder and every vile practice.</t>
+          <t>c Not many of you should become teachers, my brothers, for you know that we who teach will be judged with greater strictness.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>James 3:17</t>
+          <t>James 3:2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>But the wisdom from above is first pure, then peaceable, gentle, open to reason, full of mercy and good fruits, impartial and sincere.</t>
+          <t>For d we all stumble in many ways. And if anyone does not stumble in what he says, e he is a perfect man, f able also to bridle his whole body.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>James 3:18</t>
+          <t>James 3:3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>And a harvest of righteousness is sown in peace by those who make peace. Warning Against Worldliness 4</t>
+          <t>If we put g bits into the mouths of horses so that they obey us, we guide their whole bodies as well.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>James 4:1</t>
+          <t>James 3:4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What causes quarrels and what causes fights among you Is it not this, that your passion's are at war within you 2</t>
+          <t>Look at the ships also: though they are so large and are driven by strong winds, they are guided by a very small rudder wherever the will of the pilot directs.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>James 4:2</t>
+          <t>James 3:5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>You desire and do not have, so you murder. You covet and cannot obtain, so you fight and quarrel. You do not have, because you do not ask. 3</t>
+          <t>So also the tongue is a small member, yet h it boasts of great things. How great a forest is set ablaze by such a small fire!</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>James 4:3</t>
+          <t>James 3:6</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>You ask and do not receive, because you ask wrongly, to spend it on your passions. 4</t>
+          <t>And i the tongue is a fire, a world of unrighteousness. The tongue is set among our members, j staining the whole body, setting on fire the entire course of life, and set on fire by hell.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>James 4:5</t>
+          <t>James 3:7</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Or do you suppose it is to no purpose that the Scripture says, He yearns jealously over the spirit that he has made to dwell in us 6</t>
+          <t>For every kind of beast and bird, of reptile and sea creature, can be tamed and has been tamed by mankind,</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>James 4:6</t>
+          <t>James 3:8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>But he gives more grace. Therefore it says, God opposes the proud but gives grace to the humble. 7</t>
+          <t>but no human being can tame the tongue. It is a restless evil, k full of deadly poison.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>James 4:7</t>
+          <t>James 3:9</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Submit yourselves therefore to God. Resist the devil, and he will flee from you. 8</t>
+          <t>With it we bless our Lord and Father, and with it we curse people l who are made in the likeness of God.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>James 4:12</t>
+          <t>James 3:10</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>There is only one lawgiver and judge, he who is able to save and to destroy. But who are you to judge your neighbor Boasting About Tomorrow</t>
+          <t>From the same mouth come blessing and cursing. My brothers, these things ought not to be so.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>James 4:13</t>
+          <t>James 3:11</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Come now, you who say, Today or tomorrow we will go into such and such a town and spend a year there and trade and make a profit</t>
+          <t>Does a spring pour forth from the same opening both fresh and salt water?</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>James 4:14</t>
+          <t>James 3:12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>yet you do not know what tomorrow will bring. What is your life For you are a mist that appears for a little time and then vanishes.</t>
+          <t>Can a fig tree, my brothers, bear olives, or a grapevine produce figs? Neither can a salt pond yield fresh water. Wisdom from Above</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>James 4:15</t>
+          <t>James 3:13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Instead you ought to say, If the Lord wills, we will live and do this or that.</t>
+          <t>Who is wise and understanding among you? m By his good conduct let him show his works n in the meekness of wisdom.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>James 4:16</t>
+          <t>James 3:14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>As it is, you boast in your arrogance. All such boasting is evil.</t>
+          <t>But if you have bitter o jealousy and selfish ambition in your hearts, do not boast and be false to the truth.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>James 5:1</t>
+          <t>James 3:15</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Come now, you rich, weep and howl for the miseries that are coming upon you. 2</t>
+          <t>This is not p the wisdom that comes down from above, but is earthly, unspiritual, q demonic.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>James 5:3</t>
+          <t>James 3:16</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Your gold and silver have corroded, and their corrosion will be evidence against you and will eat your flesh like fire. You have laid up treasure in the last days. 4</t>
+          <t>For where jealousy and selfish ambition exist, there will be disorder and every vile practice.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>James 5:4</t>
+          <t>James 3:17</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Behold, the wages of the laborers who mowed your fields, which you kept back by fraud, are crying out against you, and the cries of the harvesters have reached the ears of the Lord of hosts. 5</t>
+          <t>But r the wisdom from above is first pure, then s peaceable, gentle, open to reason, t full of mercy and good fruits, u impartial and v sincere.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>James 5:6</t>
+          <t>James 3:18</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>You have condemned and murdered the righteous person. He does not resist you. Patience in Suffering 7</t>
+          <t>And w a harvest of righteousness x is sown in peace by those who make peace. Warning Against Worldliness</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>James 5:7</t>
+          <t>James 4:1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Be patient, therefore, brothers, until the coming of the Lord. See how the farmer waits for the precious fruit of the earth, being patient about it, until it receives the early and the late rains. 8</t>
+          <t>What causes quarrels and what causes fights among you? Is it not this, that your passion s are y at war within you?</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>James 5:8</t>
+          <t>James 4:2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>You also, be patient. Establish your hearts, for the coming of the Lord is at hand. 9</t>
+          <t>You desire and do not have, so you murder. You covet and cannot obtain, so you fight and quarrel. You do not have, because you do not ask.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>James 5:9</t>
+          <t>James 4:3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Do not grumble against one another, brothers, so that you may not be judged; behold, the Judge is standing at the door.</t>
+          <t>You ask and do not receive, because you ask z wrongly, to spend it on your passions.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>James 5:10</t>
+          <t>James 4:4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>As an example of suffering and patience, brothers, take the prophets who spoke in the name of the Lord.</t>
+          <t>a You adulterous people! Do you not know that friendship with the world is enmity with God? b Therefore whoever wishes to be a friend of the world makes himself an enemy of God.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>James 5:11</t>
+          <t>James 4:5</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Behold, we consider those blessed who remained steadfast. You have heard of the steadfastness of Job, and you have seen the purpose of the Lord, how the Lord is compassionate and merciful.</t>
+          <t>Or do you suppose it is to no purpose that the Scripture says, He yearns jealously over the spirit c that he has made to dwell in us?</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>James 5:12</t>
+          <t>James 4:6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>But above all, my brothers, do not swear, either by heaven or by earth or by any other oath, but let your yes be yes and your no be no, so that you may not fall under condemnation. The Prayer of Faith</t>
+          <t>But d he gives more grace. Therefore it says, e God opposes the proud but d gives grace to the humble.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>James 5:13</t>
+          <t>James 4:7</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Is anyone among you suffering Let him pray. Is anyone cheerful Let him sing praise.</t>
+          <t>Submit yourselves therefore to God. f Resist the devil, and he will flee from you.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>James 5:14</t>
+          <t>James 4:8</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Is anyone among you sick Let him call for the elders of the church, and let them pray over him, anointing him with oil in the name of the Lord.</t>
+          <t>g Draw near to God, and he will draw near to you. h Cleanse your hands, you sinners, and i purify your hearts, j you double-minded.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>James 5:15</t>
+          <t>James 4:9</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>And the prayer of faith will save the one who is sick, and the Lord will raise him up. And if he has committed sins, he will be forgiven.</t>
+          <t>k Be wretched and mourn and weep. Let your laughter be turned to mourning and your joy to gloom.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>James 5:16</t>
+          <t>James 4:10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Therefore, confess your sins to one another and pray for one another, that you may be healed. The prayer of a righteous person has great power as it is working.</t>
+          <t>l Humble yourselves before the Lord, and he will exalt you.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>James 5:17</t>
+          <t>James 4:11</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Elijah was a man with a nature like ours, and he prayed fervently that it might not rain, and for three years and six months it did not rain on the earth.</t>
+          <t>m Do not speak evil against one another, brothers. The one who speaks against a brother or n judges his brother, speaks evil against the law and judges the law. But if you judge the law, you are not a doer of the law but a judge.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>James 5:19</t>
+          <t>James 4:12</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>My brothers, if anyone among you wanders from the truth and someone brings him back,</t>
+          <t>There is only o one lawgiver and p judge, he who is able to save and q to destroy. But r who are you to judge your neighbor? Boasting About Tomorrow</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>James 4:13</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Come now, you who say, s Today or tomorrow we will go into such and such a town and spend a year there and trade and make a profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>James 4:14</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>yet you do not know what tomorrow will bring. What is your life? For t you are a mist that appears for a little time and then vanishes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>James 4:15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Instead you ought to say, u If the Lord wills, we will live and do this or that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>James 4:16</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>As it is, you boast in your arrogance. v All such boasting is evil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>James 4:17</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>w So whoever knows the right thing to do and fails to do it, for him it is sin. Warning to the Rich</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>James 5:1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Come now, x you rich, weep and howl for the y miseries that are coming upon you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>James 5:2</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>z Your riches have rotted and z your garments are moth-eaten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>James 5:3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Your gold and silver have corroded, and their corrosion will be evidence against you and will eat your flesh like fire. a You have laid up treasure b in the last days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>James 5:4</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Behold, c the wages of the laborers who mowed your fields, which you kept back by fraud, are crying out against you, and d the cries of the harvesters have reached the ears of e the Lord of hosts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>James 5:5</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>f You have lived on the earth in luxury and g in self-indulgence. You have fattened your hearts in h a day of slaughter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>James 5:6</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>You have condemned and i murdered j the righteous person. He does not resist you. Patience in Suffering</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>James 5:7</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Be patient, therefore, brothers, until the coming of the Lord. See how the farmer waits for the precious fruit of the earth, being patient about it, until it receives k the early and the late rains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>James 5:8</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>You also, be patient. l Establish your hearts, for the coming of the Lord m is at hand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>James 5:9</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Do not grumble against one another, brothers, n so that you may not be judged; behold, o the Judge is standing p at the door.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>James 5:10</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>As an example of suffering and patience, brothers, take q the prophets who spoke in the name of the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>James 5:11</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Behold, we consider those blessed who remained steadfast. You have heard of r the steadfastness of Job, and you have seen s the purpose of the Lord, how t the Lord is compassionate and merciful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>James 5:12</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>But above all, my brothers, u do not swear, either by heaven or by earth or by any other oath, but let your yes be yes and your no be no, so that you may not fall under condemnation. The Prayer of Faith</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>James 5:13</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Is anyone among you suffering? Let him pray. Is anyone cheerful? Let him v sing praise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>James 5:14</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Is anyone among you sick? Let him call for the elders of the church, and let them pray over him, w anointing him with oil in the name of the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>James 5:15</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>And the prayer of faith will save the one who is sick, and the Lord will raise him up. And x if he has committed sins, he will be forgiven.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>James 5:16</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Therefore, y confess your sins to one another and pray for one another, z that you may be healed. a The prayer of a righteous person has great power as it is working.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>James 5:17</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Elijah was a man b with a nature like ours, and c he prayed fervently that it might not rain, and for d three years and six months it did not rain on the earth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>James 5:18</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>e Then he prayed again, and heaven gave rain, and the earth bore its fruit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>James 5:19</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>My brothers, f if anyone among you wanders from the truth and someone g brings him back,</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>James 5:20</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>let him know that whoever brings back a sinner from his wandering will save his soul from death and will cover a multitude of sins.</t>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>let him know that whoever brings back a sinner from his wandering h will save his soul from death and i will cover a multitude of sins.</t>
         </is>
       </c>
     </row>
